--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Parker.Fall.110320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Parker.Fall.110320.xlsx_with_dialog_acts.xlsx
@@ -517,12 +517,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -727,12 +727,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -895,12 +895,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1147,12 +1147,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2075,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3301,12 +3301,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3889,12 +3889,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4481,12 +4481,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5279,12 +5279,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5783,12 +5783,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7085,12 +7085,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7211,12 +7211,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7547,12 +7547,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7757,12 +7757,12 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7799,12 +7799,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8009,12 +8009,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8721,12 +8721,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8889,12 +8889,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9145,12 +9145,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9397,12 +9397,12 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9439,12 +9439,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9863,12 +9863,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9989,12 +9989,12 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10495,12 +10495,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11511,12 +11511,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11595,12 +11595,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11889,12 +11889,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11973,12 +11973,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12057,12 +12057,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12183,12 +12183,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12309,12 +12309,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12477,12 +12477,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12523,12 +12523,12 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12565,12 +12565,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12733,12 +12733,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12817,12 +12817,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12899,12 +12899,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13277,12 +13277,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13613,12 +13613,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14033,12 +14033,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14117,12 +14117,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14243,12 +14243,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15171,12 +15171,12 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16225,12 +16225,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16695,12 +16695,12 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16737,12 +16737,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17149,12 +17149,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17429,12 +17429,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17837,12 +17837,12 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17877,12 +17877,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18325,12 +18325,12 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18445,12 +18445,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18849,12 +18849,12 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18889,12 +18889,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19327,12 +19327,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19535,12 +19535,12 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19575,12 +19575,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19615,12 +19615,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19655,12 +19655,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19895,12 +19895,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20495,12 +20495,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21539,12 +21539,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22595,12 +22595,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22995,12 +22995,12 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24125,12 +24125,12 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24165,12 +24165,12 @@
       <c r="H571" t="inlineStr"/>
       <c r="I571" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24605,12 +24605,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24685,12 +24685,12 @@
       <c r="H584" t="inlineStr"/>
       <c r="I584" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25129,12 +25129,12 @@
       <c r="H595" t="inlineStr"/>
       <c r="I595" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25333,12 +25333,12 @@
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -25493,12 +25493,12 @@
       <c r="H604" t="inlineStr"/>
       <c r="I604" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25773,12 +25773,12 @@
       <c r="H611" t="inlineStr"/>
       <c r="I611" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26653,12 +26653,12 @@
       <c r="H633" t="inlineStr"/>
       <c r="I633" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27333,12 +27333,12 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28377,12 +28377,12 @@
       <c r="H676" t="inlineStr"/>
       <c r="I676" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28775,12 +28775,12 @@
       <c r="H686" t="inlineStr"/>
       <c r="I686" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28895,12 +28895,12 @@
       <c r="H689" t="inlineStr"/>
       <c r="I689" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29015,12 +29015,12 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29295,12 +29295,12 @@
       <c r="H699" t="inlineStr"/>
       <c r="I699" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29455,12 +29455,12 @@
       <c r="H703" t="inlineStr"/>
       <c r="I703" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29575,12 +29575,12 @@
       <c r="H706" t="inlineStr"/>
       <c r="I706" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -29655,12 +29655,12 @@
       <c r="H708" t="inlineStr"/>
       <c r="I708" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
